--- a/02_MasterWifoMannheim/03_Courses/Course57.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course57.xlsx
@@ -1,37 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05905DB9B3611592738F06F71F984" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E435E94-3156-4DE6-9A2D-FE3D2EF820A1}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>ACC 670 Audit Theory</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>The course analyzes the market structure of the audit market as well as the auditor-client relationship. one special player in the governance system, the auditor, is analyzed. The analysis is based on theoretical models. The regulatory framework is evaluated by means of game theory.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>Students are familiar with the purpose and the scope of an independent audit. They see auditing as a potential resolution but also a potential source of agency conflicts. Furthermore, students know how the auditor strategically interacts in game theoretic settings. They are aware of the influence of regulatory changes on auditing and the audit firm’s responses to these changes</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Accounting and Taxation (AAT)</t>
+  </si>
+  <si>
+    <t>Not Taken</t>
+  </si>
+  <si>
+    <t>ACC 671</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>Obligatory registrationFurther Information on registration</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Lecture 2 6 Exercise Session 1 3</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Written exam (60 minutes) or oral exam</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Dirk Simons</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>FWS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
+  </si>
+  <si>
+    <t>ACC 5|</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +154,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,225 +478,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ACC 670 Audit Theory</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>The course analyzes the market structure of the audit market as well as the auditor-client relationship. one special player in the governance system, the auditor, is analyzed. The analysis is based on theoretical models. The regulatory framework is evaluated by means of game theory.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Students are familiar with the purpose and the scope of an independent audit. They see auditing as a potential resolution but also a potential source of agency conflicts. Furthermore, students know how the auditor strategically interacts in game theoretic settings. They are aware of the influence of regulatory changes on auditing and the audit firm’s responses to these changes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Accounting and Taxation (AAT)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Not Taken</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ACC 671</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ACC 5XX</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Obligatory registrationFurther Information on registration</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Lecture 2 6 Exercise Session 1 3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Written exam (60 minutes) or oral exam</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Prof. Dr. Dirk Simons</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>FWS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
